--- a/data-raw/model_calculations_test/model_calculations_test.xlsx
+++ b/data-raw/model_calculations_test/model_calculations_test.xlsx
@@ -5,19 +5,19 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/COP-19-Target-Setting/data-raw/model_calculations_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/model_calculations_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9CF914-C7D2-9947-813C-413CCE983611}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2655EA6D-DC07-5849-9C20-AD2DF3AF4B94}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="460" windowWidth="25600" windowHeight="20480" activeTab="1" xr2:uid="{534AEB7A-72AD-754E-A1BC-F197B85E6149}"/>
+    <workbookView xWindow="5600" yWindow="460" windowWidth="25600" windowHeight="20480" xr2:uid="{534AEB7A-72AD-754E-A1BC-F197B85E6149}"/>
   </bookViews>
   <sheets>
     <sheet name="data_required" sheetId="1" r:id="rId1"/>
     <sheet name="dimension_Item_sets" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_required!$A$1:$V$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_required!$A$1:$Z$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">dimension_Item_sets!$A$1:$J$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -314,6 +314,18 @@
   </si>
   <si>
     <t>Age: Cascade Age bands</t>
+  </si>
+  <si>
+    <t>B.add_dim_1</t>
+  </si>
+  <si>
+    <t>B.add_dim_1_uid</t>
+  </si>
+  <si>
+    <t>B.add_dim_1_items</t>
+  </si>
+  <si>
+    <t>B.add_dim_1_items_uid</t>
   </si>
 </sst>
 </file>
@@ -683,12 +695,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B5E70E-6A90-034D-92D2-04FEFE90502B}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,7 +719,7 @@
     <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -772,13 +784,25 @@
         <v>26</v>
       </c>
       <c r="V1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -846,10 +870,22 @@
         <v>19</v>
       </c>
       <c r="W2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -914,13 +950,25 @@
         <v>66</v>
       </c>
       <c r="V3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" t="s">
         <v>65</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AA3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -988,10 +1036,22 @@
         <v>19</v>
       </c>
       <c r="W4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1059,10 +1119,22 @@
         <v>19</v>
       </c>
       <c r="W5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1130,10 +1202,22 @@
         <v>19</v>
       </c>
       <c r="W6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1201,10 +1285,22 @@
         <v>19</v>
       </c>
       <c r="W7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1272,10 +1368,22 @@
         <v>19</v>
       </c>
       <c r="W8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1340,13 +1448,25 @@
         <v>88</v>
       </c>
       <c r="V9" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z9" t="s">
         <v>87</v>
       </c>
-      <c r="W9" t="s">
+      <c r="AA9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1414,11 +1534,23 @@
         <v>19</v>
       </c>
       <c r="W10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V4" xr:uid="{DF301E54-0E7B-1E4E-9373-0F8968A635A9}"/>
+  <autoFilter ref="A1:Z4" xr:uid="{DF301E54-0E7B-1E4E-9373-0F8968A635A9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1427,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BEDA6B-3F7E-D547-BD9D-9083103169CB}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data-raw/model_calculations_test/model_calculations_test.xlsx
+++ b/data-raw/model_calculations_test/model_calculations_test.xlsx
@@ -121,7 +121,7 @@
     <t>B.ind_code</t>
   </si>
   <si>
-    <t>A.ind_code</t>
+    <t>A.dx_code</t>
   </si>
   <si>
     <t>A.periods</t>

--- a/data-raw/model_calculations_test/model_calculations_test.xlsx
+++ b/data-raw/model_calculations_test/model_calculations_test.xlsx
@@ -118,7 +118,7 @@
     <t>B.sex_set</t>
   </si>
   <si>
-    <t>B.ind_code</t>
+    <t>B.dx_code</t>
   </si>
   <si>
     <t>A.dx_code</t>

--- a/data-raw/model_calculations_test/model_calculations_test.xlsx
+++ b/data-raw/model_calculations_test/model_calculations_test.xlsx
@@ -181,7 +181,7 @@
     <t>dim_item_uid</t>
   </si>
   <si>
-    <t>A.ind_uid</t>
+    <t>A.dx_id</t>
   </si>
   <si>
     <t>A.add_dim_1_uid</t>
@@ -190,7 +190,7 @@
     <t>A.add_dim_1_items_uid</t>
   </si>
   <si>
-    <t>B.ind_uid</t>
+    <t>B.dx_id</t>
   </si>
   <si>
     <t>allocate</t>

--- a/data-raw/model_calculations_test/model_calculations_test.xlsx
+++ b/data-raw/model_calculations_test/model_calculations_test.xlsx
@@ -109,7 +109,7 @@
     <t>data_pack_type</t>
   </si>
   <si>
-    <t>B.periods</t>
+    <t>B.pe_iso</t>
   </si>
   <si>
     <t>B.age_set</t>
@@ -124,7 +124,7 @@
     <t>A.dx_code</t>
   </si>
   <si>
-    <t>A.periods</t>
+    <t>A.pe_iso</t>
   </si>
   <si>
     <t>A.age_set</t>

--- a/data-raw/model_calculations_test/model_calculations_test.xlsx
+++ b/data-raw/model_calculations_test/model_calculations_test.xlsx
@@ -109,7 +109,7 @@
     <t>data_pack_type</t>
   </si>
   <si>
-    <t>B.periods</t>
+    <t>B.pe_iso</t>
   </si>
   <si>
     <t>B.age_set</t>
@@ -118,13 +118,13 @@
     <t>B.sex_set</t>
   </si>
   <si>
-    <t>B.ind_code</t>
-  </si>
-  <si>
-    <t>A.ind_code</t>
-  </si>
-  <si>
-    <t>A.periods</t>
+    <t>B.dx_code</t>
+  </si>
+  <si>
+    <t>A.dx_code</t>
+  </si>
+  <si>
+    <t>A.pe_iso</t>
   </si>
   <si>
     <t>A.age_set</t>
@@ -181,7 +181,7 @@
     <t>dim_item_uid</t>
   </si>
   <si>
-    <t>A.ind_uid</t>
+    <t>A.dx_id</t>
   </si>
   <si>
     <t>A.add_dim_1_uid</t>
@@ -190,7 +190,7 @@
     <t>A.add_dim_1_items_uid</t>
   </si>
   <si>
-    <t>B.ind_uid</t>
+    <t>B.dx_id</t>
   </si>
   <si>
     <t>allocate</t>
